--- a/danh ba online.xlsx
+++ b/danh ba online.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>Tên</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>Thiết kế website</t>
+  </si>
+  <si>
+    <t>02438840479</t>
+  </si>
+  <si>
+    <t>EVN</t>
+  </si>
+  <si>
+    <t>Điện lực</t>
+  </si>
+  <si>
+    <t>Nước sạch</t>
   </si>
 </sst>
 </file>
@@ -308,10 +320,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,16 +668,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -801,6 +813,9 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
@@ -995,6 +1010,31 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/danh ba online.xlsx
+++ b/danh ba online.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>Tên</t>
   </si>
@@ -272,6 +272,27 @@
   </si>
   <si>
     <t>Nước sạch</t>
+  </si>
+  <si>
+    <t>0987613814</t>
+  </si>
+  <si>
+    <t>0916606949</t>
+  </si>
+  <si>
+    <t>Sân bay</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Sửa xe</t>
+  </si>
+  <si>
+    <t>Báo đấu thầu</t>
+  </si>
+  <si>
+    <t>19006126</t>
   </si>
 </sst>
 </file>
@@ -628,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1037,6 +1058,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
